--- a/Куделин/Солнечная энергетика/Solar Europe Germany.xlsx
+++ b/Куделин/Солнечная энергетика/Solar Europe Germany.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>407.41849709176381</c:v>
+                  <c:v>0.2450022964746652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498.90434395570634</c:v>
+                  <c:v>0.31677171935217524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>605.66400213821271</c:v>
+                  <c:v>0.40825971574916275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>726.91562643633938</c:v>
+                  <c:v>0.52455386866791898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>860.10014872267607</c:v>
+                  <c:v>0.67273802539656169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1007.4794132787819</c:v>
+                  <c:v>0.86064619665246045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>68.762768886333077</c:v>
+                  <c:v>29.555017088906748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.361707946444398</c:v>
+                  <c:v>32.539624402869663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.80183855607288</c:v>
+                  <c:v>37.985832879908742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.085227105761547</c:v>
+                  <c:v>37.38555772033515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.53606363361007</c:v>
+                  <c:v>44.666513062610306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.322720488771211</c:v>
+                  <c:v>43.057478477420077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799957792"/>
-        <c:axId val="1799970848"/>
+        <c:axId val="-85346384"/>
+        <c:axId val="-85362160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799957792"/>
+        <c:axId val="-85346384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799970848"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799970848"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799957792"/>
+        <c:crossAx val="-85346384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6149425365666</c:v>
+                  <c:v>6.0250285145407245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0909994378496</c:v>
+                  <c:v>7.24184563337701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6747870532706</c:v>
+                  <c:v>8.5540936066406843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3863425636102</c:v>
+                  <c:v>10.584401679832167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9865725091177</c:v>
+                  <c:v>12.505511192632493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4186624418019</c:v>
+                  <c:v>6.067372892818943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.8087831687781</c:v>
+                  <c:v>7.3531478121553313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2266759015999</c:v>
+                  <c:v>8.7802883790691197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.297205634258</c:v>
+                  <c:v>11.00898806260847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7516360660775</c:v>
+                  <c:v>13.207644828853944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799952896"/>
-        <c:axId val="1799948544"/>
+        <c:axId val="-85344208"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799952896"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799948544"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799948544"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799952896"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6630547411698</c:v>
+                  <c:v>6.1743645931720366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5718828869758</c:v>
+                  <c:v>7.5928055483934482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.1007633192305</c:v>
+                  <c:v>9.2258188226431272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0324518681668</c:v>
+                  <c:v>11.798725543317495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1491216730174</c:v>
+                  <c:v>14.464659294614766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0609243794984</c:v>
+                  <c:v>6.1762782776885983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4029198085657</c:v>
+                  <c:v>7.5970645566405208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5291930226656</c:v>
+                  <c:v>9.2337864744806772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2170528332679</c:v>
+                  <c:v>11.813015167237184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4611924132378</c:v>
+                  <c:v>14.487737891403812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799946368"/>
-        <c:axId val="1799976288"/>
+        <c:axId val="-85352912"/>
+        <c:axId val="-85348560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799946368"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799976288"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799976288"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799946368"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>4.4908999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>4.7833411111111113E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>5.6997244444444449E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>6.7151500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>8.0289055555555572E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>7.4515250000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.1942865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.31479300555555562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>0.4688157444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>0.75098587288888896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>1.5125292461111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>2.5696538138888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>3.8781358194444442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>7.5893511322222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>14.32391649666268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>23.49694855276784</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>47.169829848214562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>72.209920163895447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>86.539293843353136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>98.23745086832993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>109.12889129282949</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>113.33675806052599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>123.6098622674243</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>137.07028077749499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>151.15856223130299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>176.52050900938389</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>198.72932143421099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>246.43538769986671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799951808"/>
-        <c:axId val="1799976832"/>
+        <c:axId val="-85342576"/>
+        <c:axId val="-85342032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799951808"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799976832"/>
+        <c:crossAx val="-85342032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799976832"/>
+        <c:axId val="-85342032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799951808"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799953440"/>
-        <c:axId val="1799948000"/>
+        <c:axId val="-85352368"/>
+        <c:axId val="-85372496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799953440"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799948000"/>
+        <c:crossAx val="-85372496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799948000"/>
+        <c:axId val="-85372496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799953440"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799966496"/>
-        <c:axId val="1799977376"/>
+        <c:axId val="-85351824"/>
+        <c:axId val="-85368144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799966496"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799977376"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799977376"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799966496"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799946912"/>
-        <c:axId val="1799955616"/>
+        <c:axId val="-85361616"/>
+        <c:axId val="-85351280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799946912"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799955616"/>
+        <c:crossAx val="-85351280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799955616"/>
+        <c:axId val="-85351280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799946912"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54636811447773126</v>
+        <v>-6.2312969900061503E-4</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71596012617251503</v>
+        <v>-2.2966700436012231E-4</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.92930063029118815</v>
+        <v>6.5292402194373506E-5</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2039000903688448</v>
+        <v>2.2023693803366893E-4</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5557862694602815</v>
+        <v>3.533002497473687E-4</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0138301255071709</v>
+        <v>2.2410264305099473E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.581037090310744</v>
+        <v>9.3920526252741672E-4</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3163068916137042</v>
+        <v>1.2676096312469211E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.2517635195437924</v>
+        <v>1.6331625575140975E-3</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.4486504337650672</v>
+        <v>2.1259874383751541E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.9614570301774066</v>
+        <v>2.8409594709788797E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.8713365161834243</v>
+        <v>3.6977788868401869E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.286177548123824</v>
+        <v>4.7674559809889544E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.2851894564907</v>
+        <v>6.3012420990653482E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>17.97840626428999</v>
+        <v>8.3677249304327656E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.661345312553806</v>
+        <v>1.107693064049604E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.370569993658318</v>
+        <v>1.5171450119220746E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.295893270520175</v>
+        <v>2.0409677247120107E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.619780829115768</v>
+        <v>2.6607032842738972E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.447368231145283</v>
+        <v>3.4366675533787527E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.652556040214748</v>
+        <v>4.4172053568276311E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.420513307779373</v>
+        <v>5.6247214735390121E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.485846863942527</v>
+        <v>7.1769422877510022E-2</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>106.75965818250634</v>
+        <v>9.1487996396987514E-2</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.25162429812664</v>
+        <v>0.11629415291875618</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.18452228633669</v>
+        <v>0.14818415672864271</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.3792645561058</v>
+        <v>0.18790817125589873</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.55136811447773126</v>
+        <v>4.3768703009993849E-3</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.2673282406502464</v>
+        <v>4.1472032966392621E-3</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.1966288709414346</v>
+        <v>4.2124956988336352E-3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.4005289613102794</v>
+        <v>4.4327326368673037E-3</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.9563152307705609</v>
+        <v>4.7860328866146723E-3</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>6.9701453562777314</v>
+        <v>5.010135529665667E-3</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.5511824465884754</v>
+        <v>5.9493407921930837E-3</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.86748933820218</v>
+        <v>7.216950423440005E-3</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.119252857745973</v>
+        <v>8.8501129809541029E-3</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.56790329151104</v>
+        <v>1.0976100419329258E-2</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.529360321688447</v>
+        <v>1.3817059890308138E-2</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.40069683787187</v>
+        <v>1.7514838777148323E-2</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.686874385995694</v>
+        <v>2.2282294758137276E-2</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>63.972063842486392</v>
+        <v>2.8583536857202625E-2</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>81.950470106776379</v>
+        <v>3.6951261787635387E-2</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.61181541933018</v>
+        <v>4.802819242813143E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>132.98238541298849</v>
+        <v>6.3199642547352178E-2</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>168.27827868350866</v>
+        <v>8.3609319794472281E-2</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>211.89805951262443</v>
+        <v>0.11021635263721125</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>265.34542774376973</v>
+        <v>0.14458302817099877</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>329.99798378398447</v>
+        <v>0.18875508173927508</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>407.41849709176381</v>
+        <v>0.2450022964746652</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>498.90434395570634</v>
+        <v>0.31677171935217524</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>605.66400213821271</v>
+        <v>0.40825971574916275</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>726.91562643633938</v>
+        <v>0.52455386866791898</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>860.10014872267607</v>
+        <v>0.67273802539656169</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1007.4794132787819</v>
+        <v>0.86064619665246045</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>946.69241327878183</v>
+        <v>-59.926353803347538</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>578.0349161870181</v>
+        <v>-21.410356099822202</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>354879.2908343639</v>
+        <v>7833.4466818998726</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.29742638028899576</v>
+        <v>2.634550019777828E-6</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5783606482553436</v>
+        <v>4.6960822657591785E-5</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.7595045305251977</v>
+        <v>1.1637024904768281E-4</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.434738116180176</v>
+        <v>2.12205278428991E-4</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.56506066676824</v>
+        <v>2.2906110791757171E-5</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>47.198897216384481</v>
+        <v>9.0230743520924844E-3</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>87.444613149384438</v>
+        <v>3.7655658338984425E-2</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>157.61520254303218</v>
+        <v>9.3503273408340942E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>274.3082197239147</v>
+        <v>0.30046829863899288</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>451.983487964402</v>
+        <v>1.6822709960834503</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>743.34534375085934</v>
+        <v>5.0678246298409162</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1243.5283146733345</v>
+        <v>9.7311876710895611</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2041.1306907855776</v>
+        <v>20.12166333112032</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>3278.3713598625623</v>
+        <v>44.708165118587033</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>4898.245971946918</v>
+        <v>142.23063850621671</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>7160.682402232349</v>
+        <v>397.7221245176064</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>11286.594535158685</v>
+        <v>711.86510771424526</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>18949.526374549165</v>
+        <v>932.53222955550336</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>31134.623502008701</v>
+        <v>1248.7589531078211</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>51651.392786980578</v>
+        <v>1438.7923934907571</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>85522.31387951225</v>
+        <v>1396.3109927812818</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>135908.35016196381</v>
+        <v>1483.4820790979691</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>206646.92576963993</v>
+        <v>1936.2840991188045</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>314096.3586456927</v>
+        <v>2008.1816917837177</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>458897.35028114961</v>
+        <v>2398.2025361939604</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>657332.01875681581</v>
+        <v>2368.5023881046823</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>896226.52535960381</v>
+        <v>3591.167880163986</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>1557.3928854504777</v>
+        <v>-98.584160763563816</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>2624.3299563562073</v>
+        <v>-97.204921909662247</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1707.2060558512642</v>
+        <v>257.26107118494519</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.54536811447773126</v>
+        <v>1.6231296990006153E-3</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2563282406502465</v>
+        <v>6.8527967033607372E-3</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1816288709414344</v>
+        <v>1.0787504301166364E-2</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.3815289613102792</v>
+        <v>1.4567267363132696E-2</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9563152307705609</v>
+        <v>4.7860328866146723E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.8701453562777317</v>
+        <v>9.4989864470334334E-2</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.3511824465884761</v>
+        <v>0.19405065920780692</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.554489338202179</v>
+        <v>0.30578304957656</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>16.562252857745975</v>
+        <v>0.54814988701904599</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>21.259903291511041</v>
+        <v>1.2970238995806709</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>27.264360321688446</v>
+        <v>2.2511829401096919</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>35.263696837871869</v>
+        <v>3.1194851612228516</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>45.178874385995691</v>
+        <v>4.4857177052418624</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>57.257063842486389</v>
+        <v>6.6864164631427974</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>69.987470106776385</v>
+        <v>11.926048738212364</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>84.620815419330185</v>
+        <v>19.942971807571869</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>106.23838541298849</v>
+        <v>26.680800357452647</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>137.65727868350865</v>
+        <v>30.537390680205526</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>176.45005951262442</v>
+        <v>35.337783647362791</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>227.26942774376974</v>
+        <v>37.931416971829002</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>292.44198378398448</v>
+        <v>37.367244918260724</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>368.65749709176379</v>
+        <v>38.515997703525336</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>454.58434395570634</v>
+        <v>44.003228280647825</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>560.44300213821271</v>
+        <v>44.812740284250836</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>677.4196264363394</v>
+        <v>48.971446131332087</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>810.76014872267604</v>
+        <v>48.667261974603441</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>946.69241327878183</v>
+        <v>59.926353803347538</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7703685602597448</v>
+        <v>-1.4235751232573499E-3</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8936284534138093</v>
+        <v>-3.6439273842148602E-4</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4471765872804951</v>
+        <v>-1.042003380524033E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9160761577890861</v>
+        <v>-3.5586577102636203E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3984198239560781</v>
+        <v>-3.5285716902529241E-3</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.986260308468033</v>
+        <v>-7.9343244188682036E-3</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.469045965437128</v>
+        <v>-2.7065528567191063E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0993940548130734</v>
+        <v>-7.5106706618136052E-2</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.7973250863242907</v>
+        <v>-7.4619803340652158E-2</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.6395627269335442</v>
+        <v>-0.16948072976209488</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.544656757017476</v>
+        <v>-0.19373460268558168</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.594408747387069</v>
+        <v>-1.053314801819172</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.847223090326841</v>
+        <v>-0.71043091116287327</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.902625353692846</v>
+        <v>-1.3883750128909249</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>14.755766728283815</v>
+        <v>-0.93356634634782554</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>16.560737946936303</v>
+        <v>-1.9897400730653518</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>18.897842948166449</v>
+        <v>-2.4636243235973572</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>21.86857140110893</v>
+        <v>-5.2003585619295443</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>24.774073472044105</v>
+        <v>-6.2772340575830183</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>27.082173554245259</v>
+        <v>-6.6154652144874717</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>29.236778655749909</v>
+        <v>-8.2738983616676389</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>31.206768886333077</v>
+        <v>-8.0009829110932493</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>32.600707946444395</v>
+        <v>-6.2213755971303399</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>34.48183855607288</v>
+        <v>-6.3341671200912568</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>36.86422710576155</v>
+        <v>-7.8354422796648464</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>38.040063633610075</v>
+        <v>-4.8294869373896994</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>40.982720488771214</v>
+        <v>-6.2825215225799287</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.7753685602597447</v>
+        <v>3.5764248767426502E-3</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.8996284534138095</v>
+        <v>5.635607261578514E-3</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4581765872804953</v>
+        <v>9.9579966194759673E-3</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.9310761577890858</v>
+        <v>1.1441342289736379E-2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.4174198239560782</v>
+        <v>1.5471428309747076E-2</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>6.986260308468033</v>
+        <v>-7.9343244188682036E-3</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.5690459654371276</v>
+        <v>9.7293447143280892E-2</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.2993940548130727</v>
+        <v>0.12489329338186396</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>9.1103250863242913</v>
+        <v>0.23838019665934784</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>10.196562726933545</v>
+        <v>0.38751927023790517</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>11.852656757017476</v>
+        <v>1.1142653973144183</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>13.85940874738707</v>
+        <v>1.2116851981808281</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>15.984223090326841</v>
+        <v>2.4265690888371267</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>18.410625353692847</v>
+        <v>3.1196249871090753</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>21.470766728283813</v>
+        <v>5.781433653652174</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>28.523737946936301</v>
+        <v>9.9732599269346469</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>38.888842948166449</v>
+        <v>17.527375676402642</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>48.61257140110893</v>
+        <v>21.543641438070456</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>55.395073472044103</v>
+        <v>24.343765942416979</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>62.530173554245259</v>
+        <v>28.832534785512529</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>67.312778655749909</v>
+        <v>29.80210163833236</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>68.762768886333077</v>
+        <v>29.555017088906748</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>71.361707946444398</v>
+        <v>32.539624402869663</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>78.80183855607288</v>
+        <v>37.985832879908742</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>82.085227105761547</v>
+        <v>37.38555772033515</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>87.53606363361007</v>
+        <v>44.666513062610306</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>90.322720488771211</v>
+        <v>43.057478477420077</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>29.535720488771211</v>
+        <v>-17.729521522579923</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>-0.46604839756186323</v>
+        <v>-8.5235386114866678</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>4352.7907610229668</v>
+        <v>682.82705123361848</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.208139343074622</v>
+        <v>5.8737163780718793E-6</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.898688155527093</v>
+        <v>2.8776709452029164E-5</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.628171360318543</v>
+        <v>2.5421798089215767E-5</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.952644495498156</v>
+        <v>5.7133306380927678E-5</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>41.183277196904463</v>
+        <v>2.3936509394364327E-4</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>47.420581035982252</v>
+        <v>1.1649818387757492E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>54.302838440725203</v>
+        <v>1.0548635999710038E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>63.782489998753597</v>
+        <v>3.5384133074721512E-2</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>73.159370032344441</v>
+        <v>0.10151857908083589</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>79.006547350632289</v>
+        <v>0.84728477386335888</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>91.923162090382846</v>
+        <v>1.3241901258179438</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>114.97004934604274</v>
+        <v>3.7068370861039974</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>131.70369641895093</v>
+        <v>4.3323546379443085</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>136.78765241394294</v>
+        <v>12.926721483320415</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>90.397628159460695</v>
+        <v>38.211762494300004</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>72.807616871086722</v>
+        <v>100.35511617149942</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>147.49721023562833</v>
+        <v>84.946163922326463</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>323.6966414812008</v>
+        <v>82.398438461835582</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>397.8857400991256</v>
+        <v>123.30401400558668</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>598.00660422114822</v>
+        <v>85.44164917143992</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>885.46587596729353</v>
+        <v>60.122939803072072</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>900.10613630894329</v>
+        <v>84.750121359341037</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>731.25396866079404</v>
+        <v>138.77724920946395</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>1127.6727181290312</v>
+        <v>52.347643255649579</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>1062.057723350903</v>
+        <v>146.66281220909403</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>1458.9392771027894</v>
+        <v>21.84148015395213</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>872.35878479081953</v>
+        <v>314.33593341962467</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>48.588876715039746</v>
+        <v>-29.16663352785945</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>-2.1159011965943124</v>
+        <v>-38.697623769575365</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>261.93288526596734</v>
+        <v>82.227433352588704</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7693685602597449</v>
+        <v>2.4235751232573499E-3</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8886284534138094</v>
+        <v>5.3643927384214854E-3</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4431765872804956</v>
+        <v>5.0420033805240322E-3</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9120761577890857</v>
+        <v>7.5586577102636204E-3</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.4174198239560782</v>
+        <v>1.5471428309747076E-2</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.8862603084680334</v>
+        <v>0.10793432441886822</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.3690459654371274</v>
+        <v>0.10270655285671912</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>7.986394054813073</v>
+        <v>0.18810670661813605</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.5533250863242909</v>
+        <v>0.31861980334065221</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>8.8885627269335448</v>
+        <v>0.92048072976209494</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>9.5876567570174753</v>
+        <v>1.1507346026855818</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>10.722408747387069</v>
+        <v>1.9253148018191719</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>11.47622309032684</v>
+        <v>2.0814309111628733</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>11.695625353692847</v>
+        <v>3.5953750128909245</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>9.5077667282838139</v>
+        <v>6.1815663463478252</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>8.5327379469363009</v>
+        <v>10.017740073065353</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>12.144842948166449</v>
+        <v>9.2166243235973582</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>17.991571401108931</v>
+        <v>9.0773585619295432</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>19.947073472044103</v>
+        <v>11.104234057583021</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>24.454173554245259</v>
+        <v>9.2434652144874718</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>29.756778655749912</v>
+        <v>7.7538983616676376</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>30.001768886333075</v>
+        <v>9.2059829110932547</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>27.041707946444397</v>
+        <v>11.780375597130337</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>33.580838556072884</v>
+        <v>7.2351671200912548</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>32.589227105761545</v>
+        <v>12.110442279664852</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>38.196063633610066</v>
+        <v>4.673486937389697</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>29.535720488771211</v>
+        <v>17.729521522579923</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.1484873227916165E-5</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.767655493628336</v>
+        <v>2.255028742055229E-5</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>3.264401835059369E-5</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>5.0484274171957652E-5</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003934</v>
+        <v>2.5015623958198237E-5</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>3.9877470401494808E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>5.9066896877456657E-4</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819007</v>
+        <v>1.0015964095042729E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>2.1538724319528878E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>6.4708216019570084E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>1.1839825041991523E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>1.9296375533823427E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872999</v>
+        <v>5.8129332708810981E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>0.12844364498600547</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>0.22097471610234301</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.62149948073024475</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404447</v>
+        <v>0.85291198045037264</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.74833762749904698</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>0.79745532388666618</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>0.87926320653487577</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.9225529118911</v>
+        <v>0.67778518879361105</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>0.99330045793944954</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>1.2168171188362855</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>1.3122479732636743</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>2.0303080731914829</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>1.9211095128003262</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9697167305578613</v>
+        <v>5.0334411401503571E-3</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.963574377795911</v>
+        <v>5.0449260133782732E-3</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.731229871424247</v>
+        <v>5.0674763007988255E-3</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.64037537693677</v>
+        <v>5.1001203191494192E-3</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.002669727071634</v>
+        <v>5.1506045933213769E-3</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.686518217872027</v>
+        <v>5.1756202172795751E-3</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.715439171332029</v>
+        <v>5.5743949212945232E-3</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.545772735901203</v>
+        <v>6.1650638900690898E-3</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.271687939720209</v>
+        <v>7.1666602995733627E-3</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.04809164406645</v>
+        <v>9.3205327315262505E-3</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.73958598197203</v>
+        <v>1.5791354333483259E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.80783531733297</v>
+        <v>2.7631179375474782E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.86531245231606</v>
+        <v>4.6927554909298209E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.42981596418906</v>
+        <v>0.10505688761810919</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.49529624351317</v>
+        <v>0.23350053260411466</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>412.99466915671519</v>
+        <v>0.45447524870645767</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.81773993282263</v>
+        <v>1.0759747294367024</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.3411909868671</v>
+        <v>1.928886709887075</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.66474949177439</v>
+        <v>2.677224337386122</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.2864591641719</v>
+        <v>3.4746796612727882</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.73817981339141</v>
+        <v>4.3539428678076639</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6607327252825</v>
+        <v>5.031728056601275</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6149425365666</v>
+        <v>6.0250285145407245</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0909994378496</v>
+        <v>7.24184563337701</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6747870532706</v>
+        <v>8.5540936066406843</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3863425636102</v>
+        <v>10.584401679832167</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9865725091177</v>
+        <v>12.505511192632493</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1733.1995725091176</v>
+        <v>-48.281488807367509</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>665.29983978383518</v>
+        <v>-14.552216863968777</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4140433.8642763002</v>
+        <v>6593.0071436185053</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.275651086798632</v>
+        <v>9.3423602955384194E-7</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.76918301233516</v>
+        <v>3.5462906186138775E-5</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.43234111429626</v>
+        <v>9.8655027035192983E-5</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>467.48387319040773</v>
+        <v>1.9320665514212286E-4</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>784.14951184345409</v>
+        <v>2.6528727676743264E-5</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1338.5733153066817</v>
+        <v>8.9916630011775984E-3</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2163.6860813018898</v>
+        <v>3.7801315910220748E-2</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3627.9869114547228</v>
+        <v>9.4147678017585376E-2</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6039.5727215680936</v>
+        <v>0.30231670144612482</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10148.566064454904</v>
+        <v>1.6865683587047271</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>16763.668415203072</v>
+        <v>5.0589395317410073</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>27446.82567474286</v>
+        <v>9.668174462671951</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>45095.628151970588</v>
+        <v>19.901167360347532</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>69019.074527097735</v>
+        <v>43.6913479489248</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>97052.371602756029</v>
+        <v>137.58115775564033</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>154451.88397064086</v>
+        <v>381.67579935790513</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>229511.64829322175</v>
+        <v>658.84752129027606</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>333760.6190739022</v>
+        <v>823.2373650526747</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>475019.72778000729</v>
+        <v>1073.923737529366</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>659685.82997567486</v>
+        <v>1197.2513691832175</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>867100.25200201909</v>
+        <v>1102.3765978093641</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1140409.8391547299</v>
+        <v>1137.6637858317447</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1457561.0782743718</v>
+        <v>1466.5048410721392</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1868333.595363227</v>
+        <v>1442.4161664037779</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2199819.3143648109</v>
+        <v>1676.2396991225967</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2458769.3324271152</v>
+        <v>1501.9964011541958</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>3003980.7581457882</v>
+        <v>2331.102161455954</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>2851.2668374966979</v>
+        <v>-79.427326249638099</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>3020.5204748199185</v>
+        <v>-66.068359502264514</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6443.1026430230277</v>
+        <v>238.83968324882153</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9637167305578611</v>
+        <v>9.6655885984964305E-4</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.952574377795912</v>
+        <v>5.9550739866217261E-3</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.716229871424247</v>
+        <v>9.9325236992011748E-3</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.621375376936772</v>
+        <v>1.3899879680850581E-2</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>28.002669727071634</v>
+        <v>5.1506045933213769E-3</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.586518217872026</v>
+        <v>9.482437978272043E-2</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.515439171332027</v>
+        <v>0.19442560507870549</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.2327727359012</v>
+        <v>0.3068349361099309</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>77.714687939720207</v>
+        <v>0.54983333970042669</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>100.74009164406644</v>
+        <v>1.2986794672684738</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>129.47458598197204</v>
+        <v>2.249208645666517</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>165.67083531733297</v>
+        <v>3.1093688206245251</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>212.35731245231605</v>
+        <v>4.4610724450907018</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>262.71481596418909</v>
+        <v>6.6099431123818908</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>311.53229624351314</v>
+        <v>11.729499467395884</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>393.0036691567152</v>
+        <v>19.536524751293541</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>479.0737399328226</v>
+        <v>25.668025270563298</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>577.72019098686712</v>
+        <v>28.692113290112925</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>689.21674949177441</v>
+        <v>32.770775662613879</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>812.21045916417188</v>
+        <v>34.601320338727213</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>931.18217981339137</v>
+        <v>33.202057132192337</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1067.8997327252825</v>
+        <v>33.729271943398729</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1207.2949425365666</v>
+        <v>38.294971485459278</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1366.8699994378496</v>
+        <v>37.979154366622986</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1483.1787870532705</v>
+        <v>40.941906393359318</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1568.0463425636103</v>
+        <v>38.755598320167834</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1733.1995725091176</v>
+        <v>48.281488807367509</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.0523186881371618E-5</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>2.0661624603571065E-5</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460541</v>
+        <v>3.0553097657175753E-5</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>4.8020282248786156E-5</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187319</v>
+        <v>2.5957007848332291E-5</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>3.808130929131813E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>5.7687726058274456E-4</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658733</v>
+        <v>9.9167935361336394E-4</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>2.1469898163530505E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>6.4726445793200083E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>1.1918061581610965E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>1.9482577059123967E-2</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371499</v>
+        <v>5.8606064626900399E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>0.12933187638653876</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>0.2218672259042391</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.62244911451558371</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705488</v>
+        <v>0.85073421572713315</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.74321661783748283</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>0.79297021759576092</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>0.88060009599406097</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173127</v>
+        <v>0.69196392461097833</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>1.0285002934217573</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>1.2857749193363883</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>1.4271405669137884</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>2.2286996835393502</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>2.1986567662454739</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3150805600049118</v>
+        <v>5.0278882557509815E-3</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.084494904627167</v>
+        <v>5.0384114426323531E-3</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.648210877016018</v>
+        <v>5.0590730672359242E-3</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.372654213762072</v>
+        <v>5.0896261648930999E-3</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.593726619776547</v>
+        <v>5.1376464471418861E-3</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.176596002395279</v>
+        <v>5.1636034549902184E-3</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.277564227059102</v>
+        <v>5.5444165479033997E-3</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.271327030105788</v>
+        <v>6.1212938084861442E-3</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.332337116764521</v>
+        <v>7.1129731620995082E-3</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.61754470742196</v>
+        <v>9.2599629784525586E-3</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.02243946478177</v>
+        <v>1.5732607557772567E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.95320676938496</v>
+        <v>2.7650669139383532E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.92920175716927</v>
+        <v>4.7133246198507499E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.26738808354077</v>
+        <v>0.1057393108254079</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.71888635331879</v>
+        <v>0.23507118721194667</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.25788933976145</v>
+        <v>0.45693841311618577</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.42957703638581</v>
+        <v>1.0793875276317695</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.73171063344068</v>
+        <v>1.9301217433589026</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.61094181073975</v>
+        <v>2.6733383611963855</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.23503744191032</v>
+        <v>3.4663085787921464</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.17130336083142</v>
+        <v>4.3469086747862073</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2336344525627</v>
+        <v>5.0388725993971857</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4186624418019</v>
+        <v>6.067372892818943</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.8087831687781</v>
+        <v>7.3531478121553313</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2266759015999</v>
+        <v>8.7802883790691197</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.297205634258</v>
+        <v>11.00898806260847</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7516360660775</v>
+        <v>13.207644828853944</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1833.9646360660774</v>
+        <v>-47.579355171146055</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>764.49200161351484</v>
+        <v>-13.857227770543238</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4140944.4821746806</v>
+        <v>6593.4368678909577</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.040819752651529</v>
+        <v>9.4500124330686946E-7</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.62228940280386</v>
+        <v>3.5540538127336855E-5</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.13086057121987</v>
+        <v>9.8822028282554165E-5</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>374.56393142587046</v>
+        <v>1.9349850023242667E-4</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>655.03884228785864</v>
+        <v>2.6395411015829645E-5</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1161.2143951104617</v>
+        <v>8.9939421096423451E-3</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1942.8316681905201</v>
+        <v>3.7812973935695313E-2</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3359.1676721286908</v>
+        <v>9.4174540313777491E-2</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5741.9017151593107</v>
+        <v>0.30237574228462599</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>9862.3856699954395</v>
+        <v>1.6867256837627302</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>16578.478217526947</v>
+        <v>5.0592038027038582</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>27495.014427387428</v>
+        <v>9.6680532613233634</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>45548.609359474343</v>
+        <v>19.899332195171468</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>69987.96604070437</v>
+        <v>43.682326857468603</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>98442.756221356685</v>
+        <v>137.54431423782418</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>156235.91380833124</v>
+        <v>381.57956208016986</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>231058.62397080316</v>
+        <v>658.67233335683886</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>334211.99374910182</v>
+        <v>823.16649513740083</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>473568.23448161158</v>
+        <v>1074.1784455380653</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>656357.66594880261</v>
+        <v>1197.8307402712287</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>864184.61224265059</v>
+        <v>1102.8437466463899</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1143771.7158429048</v>
+        <v>1137.1818764224872</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1478895.9567927397</v>
+        <v>1463.2634806010428</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1928176.0315655814</v>
+        <v>1433.9742293204517</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2321755.1726835463</v>
+        <v>1657.769172798806</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2666549.2354328446</v>
+        <v>1469.2664761444526</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3363426.2863409799</v>
+        <v>2263.7950385020627</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>3017.0342936254092</v>
+        <v>-78.272254217424873</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>3470.8617162149958</v>
+        <v>-62.913047173990918</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6427.936752762761</v>
+        <v>238.84251747835287</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3090805600049116</v>
+        <v>9.7211174424901865E-4</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.073494904627168</v>
+        <v>5.9615885573676463E-3</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.633210877016017</v>
+        <v>9.9409269327640753E-3</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.353654213762074</v>
+        <v>1.39103738351069E-2</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.593726619776547</v>
+        <v>5.1376464471418861E-3</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.076596002395277</v>
+        <v>9.4836396545009791E-2</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.077564227059099</v>
+        <v>0.19445558345209663</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>57.958327030105785</v>
+        <v>0.30687870619151386</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>75.775337116764518</v>
+        <v>0.54988702683790058</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>99.309544707421949</v>
+        <v>1.2987400370215474</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>128.75743946478178</v>
+        <v>2.2492673924422277</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>165.81620676938496</v>
+        <v>3.1093493308606166</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>213.42120175716926</v>
+        <v>4.4608667538014926</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>264.55238808354079</v>
+        <v>6.609260689174592</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>313.75588635331877</v>
+        <v>11.727928812788052</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>395.26688933976146</v>
+        <v>19.534061586883816</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>480.68557703638578</v>
+        <v>25.66461247236823</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>578.1107106334407</v>
+        <v>28.690878256641096</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>688.16294181073977</v>
+        <v>32.774661638803614</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>810.1590374419103</v>
+        <v>34.609691421207856</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>929.61530336083138</v>
+        <v>33.209091325213791</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1069.4726344525627</v>
+        <v>33.722127400602815</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1216.0986624418019</v>
+        <v>38.252627107181056</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1388.5877831687781</v>
+        <v>37.867852187844662</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1523.7306759015999</v>
+        <v>40.715711620930882</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1632.9572056342581</v>
+        <v>38.331011937391537</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1833.9646360660774</v>
+        <v>47.579355171146055</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737858</v>
+        <v>7.7726293591772605E-6</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166009</v>
+        <v>1.5641552969828179E-5</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>2.5623352499630839E-5</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.16987198261298</v>
+        <v>4.3129752235726224E-5</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>3.068245528828166E-5</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573261</v>
+        <v>3.4572072541146776E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>5.6234115573693729E-4</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398944</v>
+        <v>9.9943206281981941E-4</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>2.1861958371132148E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>6.6031911609912529E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>1.2222305473328286E-2</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>1.9922586718918091E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290303</v>
+        <v>5.9540455341911484E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>0.1304217360648065</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>0.22176112334636053</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.61971784888693149</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441114</v>
+        <v>0.84186887609593053</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.73385786111152518</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>0.79038150083279923</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>0.89381127086325662</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584695</v>
+        <v>0.73045850153450242</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>1.1045686243974435</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>1.4184409552214117</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>1.633013274249679</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>2.5729067206743679</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485052</v>
+        <v>2.6659337512972705</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6319318817343054</v>
+        <v>5.0121718198973915E-3</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.7578280317080912</v>
+        <v>5.0199444492565687E-3</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8261660449246921</v>
+        <v>5.0355860022263969E-3</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.231959096098409</v>
+        <v>5.0612093547260277E-3</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.401831078711389</v>
+        <v>5.104339106961754E-3</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.206741076289131</v>
+        <v>5.1350215622500356E-3</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.099501974862392</v>
+        <v>5.4807422876615034E-3</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.207244383028197</v>
+        <v>6.0430834433984407E-3</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.787181622427141</v>
+        <v>7.0425155062182601E-3</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.879438167129393</v>
+        <v>9.2287113433314749E-3</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.23457450081716</v>
+        <v>1.5831902504322728E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.96314712335669</v>
+        <v>2.8054207977651013E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.29225586929334</v>
+        <v>4.7976794696569104E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.05487404958365</v>
+        <v>0.10751725003848059</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.77885550242269</v>
+        <v>0.23793898610328709</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.79540849871432</v>
+        <v>0.45970010944964762</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.4439492132027</v>
+        <v>1.0794179583365791</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.93809767464381</v>
+        <v>1.9212868344325096</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.67714302389618</v>
+        <v>2.6551446955440348</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.14209625709884</v>
+        <v>3.445526196376834</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.48480616274935</v>
+        <v>4.3393374672400906</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0415467985963</v>
+        <v>5.069795968774593</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6630547411698</v>
+        <v>6.1743645931720366</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5718828869758</v>
+        <v>7.5928055483934482</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.1007633192305</v>
+        <v>9.2258188226431272</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0324518681668</v>
+        <v>11.798725543317495</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1491216730174</v>
+        <v>14.464659294614766</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>2014.3621216730173</v>
+        <v>-46.32234070538523</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>938.08157487442111</v>
+        <v>-12.631136674159823</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4142012.50457667</v>
+        <v>6594.7836245960189</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.147382010977282</v>
+        <v>9.7580451340483178E-7</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.026032426025893</v>
+        <v>3.5761064389977317E-5</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.636647071233838</v>
+        <v>9.9289546319026494E-5</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.58228807516969</v>
+        <v>1.9428988465277722E-4</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.43104920685113</v>
+        <v>2.6054277718859115E-5</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>789.98889392955857</v>
+        <v>8.999364133994766E-3</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1513.171253892323</v>
+        <v>3.783774162095916E-2</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2904.5895776175662</v>
+        <v>9.4222548621936464E-2</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5362.6595004536657</v>
+        <v>0.30245323475072822</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9716.3284223362116</v>
+        <v>1.6868068602389039</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>16892.090295923466</v>
+        <v>5.0587571307923245</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>28502.267952517279</v>
+        <v>9.6655439377334709</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>47429.982104541828</v>
+        <v>19.891806991845087</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>72543.967753045596</v>
+        <v>43.658828291039043</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>101006.9180087368</v>
+        <v>137.47705577960059</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>158248.34742101197</v>
+        <v>381.47167541461215</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>231072.44117357561</v>
+        <v>658.6707713732726</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>330989.7628767757</v>
+        <v>823.67353578584778</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>466802.06187716761</v>
+        <v>1075.3713590189859</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>648131.41934264428</v>
+        <v>1199.2697158634305</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>861051.86930662522</v>
+        <v>1103.3466698152556</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1158379.8154170855</v>
+        <v>1135.0972290736593</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1533493.5212256922</v>
+        <v>1455.0895005906473</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2060232.1570044209</v>
+        <v>1415.8810176879138</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2571548.236940125</v>
+        <v>1621.6874920571479</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3075437.2157393829</v>
+        <v>1409.3472878319626</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>4057654.7572310199</v>
+        <v>2145.7592484257893</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>3313.8041385049719</v>
+        <v>-76.204354064825097</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>4258.9738258168591</v>
+        <v>-57.346484491781645</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6393.5625780312885</v>
+        <v>238.85851698186337</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6259318817343056</v>
+        <v>9.8782818010260866E-4</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7468280317080911</v>
+        <v>5.9800555507434306E-3</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8111660449246916</v>
+        <v>9.9644139977736017E-3</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.212959096098409</v>
+        <v>1.3938790645273973E-2</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.401831078711389</v>
+        <v>5.104339106961754E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.106741076289129</v>
+        <v>9.4864978437749964E-2</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>38.899501974862389</v>
+        <v>0.19451925771233849</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>53.894244383028195</v>
+        <v>0.30695691655660157</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.230181622427139</v>
+        <v>0.54995748449378179</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>98.571438167129386</v>
+        <v>1.2987712886566687</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>129.96957450081717</v>
+        <v>2.2491680974956774</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>168.82614712335669</v>
+        <v>3.1089457920223489</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>217.78425586929333</v>
+        <v>4.4600232053034308</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>269.33987404958367</v>
+        <v>6.6074827499615196</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>317.81585550242266</v>
+        <v>11.725061013896712</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>397.80440849871434</v>
+        <v>19.531299890550351</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>480.69994921320267</v>
+        <v>25.664582041663422</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>575.31709767464383</v>
+        <v>28.699713165567488</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>683.2291430238962</v>
+        <v>32.792855304455969</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>805.06609625709882</v>
+        <v>34.630473803623168</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>927.92880616274931</v>
+        <v>33.216662532759905</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1076.2805467985963</v>
+        <v>33.691204031225411</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1238.3430547411699</v>
+        <v>38.145635406827964</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1435.3508828869758</v>
+        <v>37.628194451606547</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1603.6047633192304</v>
+        <v>40.270181177356875</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1753.6924518681669</v>
+        <v>37.541274456682508</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>2014.3621216730173</v>
+        <v>46.32234070538523</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983961</v>
+        <v>7.649659702096967E-6</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.0432763293987479</v>
+        <v>1.5436575774257014E-5</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>2.5418179139730969E-5</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.163239316733689</v>
+        <v>4.2924359738529504E-5</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>3.0839839792110371E-5</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412965</v>
+        <v>3.4431721120782403E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>5.6161368826458322E-4</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613796</v>
+        <v>9.9933578672467029E-4</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>2.1867361890841276E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>6.6052415480606468E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>1.2228669776961007E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>1.993245358781047E-2</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547853</v>
+        <v>5.9560747663968044E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>0.13044746459297452</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>0.22176705480527234</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.61968759484080538</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634715</v>
+        <v>0.84173045248877276</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.7337021079867827</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>0.79033978119053039</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>0.89403907654533299</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791284</v>
+        <v>0.73111890520608735</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>1.105892796013082</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>1.4207862789519226</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>1.6367219178401564</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>2.5792286927565069</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.2441395799699</v>
+        <v>2.674722724166628</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4794068390269204</v>
+        <v>5.0116599527297101E-3</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5747140718253165</v>
+        <v>5.0193096124318071E-3</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6179904012240645</v>
+        <v>5.0347461882060641E-3</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.006143852723438</v>
+        <v>5.0601643673457951E-3</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.169383169457127</v>
+        <v>5.1030887270843246E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.978448853845606</v>
+        <v>5.133928566876435E-3</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.896483016258571</v>
+        <v>5.478245778084259E-3</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.03971532000493</v>
+        <v>6.0398594663488422E-3</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.667243477618726</v>
+        <v>7.0391952530735125E-3</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.813781978906718</v>
+        <v>9.2259314421576401E-3</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.22566901633888</v>
+        <v>1.5831172990218287E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.00517623872045</v>
+        <v>2.8059842767179294E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.37243451304934</v>
+        <v>4.7992296354989764E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.15125708559719</v>
+        <v>0.10755304401895781</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.86595348123473</v>
+        <v>0.23800050861193231</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.85738697656126</v>
+        <v>0.45976756341720465</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.46151843651603</v>
+        <v>1.0794551582580101</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.90609057615075</v>
+        <v>1.9211856107467828</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.60745547989245</v>
+        <v>2.6548877187335655</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.06889755275836</v>
+        <v>3.4452274999240959</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.46901514323724</v>
+        <v>4.3392665764694289</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.1713305911501</v>
+        <v>5.0703854816755163</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0609243794984</v>
+        <v>6.1762782776885983</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4029198085657</v>
+        <v>7.5970645566405208</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5291930226656</v>
+        <v>9.2337864744806772</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2170528332679</v>
+        <v>11.813015167237184</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4611924132378</v>
+        <v>14.487737891403812</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>2017.6741924132377</v>
+        <v>-46.299262108596189</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>941.26386182208773</v>
+        <v>-12.608647590271701</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4142134.2772834995</v>
+        <v>6594.7853479710166</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.064555069398985</v>
+        <v>9.7681604903823909E-7</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.954914273027043</v>
+        <v>3.5768657511950573E-5</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.01144384355338</v>
+        <v>9.9306283533473542E-5</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.66590545133218</v>
+        <v>1.9431901746541584E-4</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.46525109746619</v>
+        <v>2.6041514556495113E-5</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>777.20791049648528</v>
+        <v>8.9995715091545046E-3</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1497.4177978275879</v>
+        <v>3.7838712865571403E-2</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2886.5599390768521</v>
+        <v>9.4224527876438882E-2</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5345.107701356691</v>
+        <v>0.30245688675788707</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9703.3890832759025</v>
+        <v>1.686814081158291</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>16889.77549117439</v>
+        <v>5.0587604123925587</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>28516.46094619155</v>
+        <v>9.6655089012548352</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>47464.91182569076</v>
+        <v>19.891668716572834</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>72595.896632296033</v>
+        <v>43.658355276103144</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>101062.28783209207</v>
+        <v>137.47561307305043</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>158297.66188578281</v>
+        <v>381.46904049182388</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>231089.33253176211</v>
+        <v>658.66886193378537</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>330952.93543920998</v>
+        <v>823.67934597758597</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>466706.84161158319</v>
+        <v>1075.3882130917473</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>648013.56511038565</v>
+        <v>1199.2904039520135</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>861022.56367221358</v>
+        <v>1103.351379329893</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1158659.1998033491</v>
+        <v>1135.0575066223366</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1534479.0777325742</v>
+        <v>1454.9435068291309</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2062618.5067850174</v>
+        <v>1415.5605182460815</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2576131.5507045332</v>
+        <v>1621.0458379745116</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3083104.2246664427</v>
+        <v>1408.2745906384109</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>4071009.1467304109</v>
+        <v>2143.6216718004907</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>3319.2527882824252</v>
+        <v>-76.166387728619924</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>4273.421691737437</v>
+        <v>-57.244382049721708</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6392.0914960720984</v>
+        <v>238.85844757413196</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4734068390269206</v>
+        <v>9.8834004727028999E-4</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5637140718253164</v>
+        <v>5.9806903875681923E-3</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.6029904012240639</v>
+        <v>9.9652538117939345E-3</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.987143852723438</v>
+        <v>1.3939835632654204E-2</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.169383169457127</v>
+        <v>5.1030887270843246E-3</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.878448853845605</v>
+        <v>9.4866071433123575E-2</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.696483016258568</v>
+        <v>0.19452175422191575</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>53.726715320004928</v>
+        <v>0.30696014053365117</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.110243477618724</v>
+        <v>0.54996080474692655</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>98.505781978906711</v>
+        <v>1.2987740685578424</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>129.9606690163389</v>
+        <v>2.249168827009782</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>168.86817623872045</v>
+        <v>3.1089401572328206</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>217.86443451304933</v>
+        <v>4.4600077036450099</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>269.43625708559722</v>
+        <v>6.6074469559810423</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>317.9029534812347</v>
+        <v>11.724999491388067</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>397.86638697656127</v>
+        <v>19.531232436582794</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>480.717518436516</v>
+        <v>25.664544841741989</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>575.28509057615076</v>
+        <v>28.699814389253216</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>683.15945547989247</v>
+        <v>32.793112281266431</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>804.99289755275834</v>
+        <v>34.630772500075906</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>927.9130151432372</v>
+        <v>33.21673342353057</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1076.4103305911501</v>
+        <v>33.690614518324487</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1238.7409243794984</v>
+        <v>38.143721722311405</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1436.1819198085657</v>
+        <v>37.623935443359478</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1605.0331930226655</v>
+        <v>40.262213525519329</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1755.877052833268</v>
+        <v>37.526984832762821</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>2017.6741924132377</v>
+        <v>46.299262108596189</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
